--- a/biology/Médecine/Artère_rectale_supérieure/Artère_rectale_supérieure.xlsx
+++ b/biology/Médecine/Artère_rectale_supérieure/Artère_rectale_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_rectale_sup%C3%A9rieure</t>
+          <t>Artère_rectale_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’artère rectale supérieure (ou artère hémorroïdaire supérieure) est une artère qui descend dans le bassin pour fournir du sang au rectum.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_rectale_sup%C3%A9rieure</t>
+          <t>Artère_rectale_supérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère rectale supérieure est en continuité avec l'artère mésentérique inférieure. Elle descend dans le bassin entre les couches du mésentère du côlon sigmoïde, croisant l'artère et la veine iliaque commune gauche. 
 Elle se divise, en face de la troisième vertèbre sacrée, en deux branches qui descendent chacune d'un côté du rectum. A environ 10 ou 12 cm de l'anus, ces branches se divisent en plusieurs petites branches. 
